--- a/biology/Zoologie/Amphiope_bioculata/Amphiope_bioculata.xlsx
+++ b/biology/Zoologie/Amphiope_bioculata/Amphiope_bioculata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amphiope bioculata est une espèce éteinte d'oursins de la famille des Astriclypeidae, ayant vécu au Miocène.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Amphiope bioculata a été initialement décrite en 1835 par le botaniste et malacologiste français Charles des Moulins (1798–1875) sous le protonyme de Scutella bioculata[1]. En 1840, Louis Agassiz la reclasse dans le genre Amphiope[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Amphiope bioculata a été initialement décrite en 1835 par le botaniste et malacologiste français Charles des Moulins (1798–1875) sous le protonyme de Scutella bioculata. En 1840, Louis Agassiz la reclasse dans le genre Amphiope.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (12 septembre 2021)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (12 septembre 2021) :
 sous-espèce † Amphiope bioculata bentivegnae Desio, 1934
 sous-espèce † Amphiope bioculata pelatensis Fabre, 1933</t>
         </is>
